--- a/ЭОПР/ЭОПР_курсач.xlsx
+++ b/ЭОПР/ЭОПР_курсач.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9110" windowHeight="7100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="153">
   <si>
     <t>Норма амартизац от4исл = 1/срок полезн исп(мес) * 100</t>
   </si>
@@ -310,9 +312,6 @@
       </rPr>
       <t>кр</t>
     </r>
-  </si>
-  <si>
-    <t>Рас4ет мат затрат</t>
   </si>
   <si>
     <t>Зэ = Fном×Цэ×W×Ки×Ксм, руб.</t>
@@ -436,9 +435,6 @@
   </si>
   <si>
     <t>Расчет амортизационных отчислений на оборудование</t>
-  </si>
-  <si>
-    <t>Норма амортизац от4ислений</t>
   </si>
   <si>
     <t>срок полезного использовани</t>
@@ -728,24 +724,6 @@
     <t>Иt</t>
   </si>
   <si>
-    <t>2016 г</t>
-  </si>
-  <si>
-    <t>2017 г</t>
-  </si>
-  <si>
-    <t>2018 г</t>
-  </si>
-  <si>
-    <t>2019 г</t>
-  </si>
-  <si>
-    <t>2020 г</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>At=Кр/4</t>
   </si>
   <si>
@@ -916,15 +894,6 @@
     <t>Зпроек</t>
   </si>
   <si>
-    <t>Uпост</t>
-  </si>
-  <si>
-    <t>Uперем</t>
-  </si>
-  <si>
-    <t>Uполн</t>
-  </si>
-  <si>
     <t>В</t>
   </si>
   <si>
@@ -959,13 +928,152 @@
   </si>
   <si>
     <t>Прибыль=Иполн*15%</t>
+  </si>
+  <si>
+    <t>Расчет мат затрат</t>
+  </si>
+  <si>
+    <t>Норма амортизац отчислений</t>
+  </si>
+  <si>
+    <t>Ипост</t>
+  </si>
+  <si>
+    <t>Иперем</t>
+  </si>
+  <si>
+    <t>Иполн</t>
+  </si>
+  <si>
+    <t>Точка безубыточности</t>
+  </si>
+  <si>
+    <t>Зм</t>
+  </si>
+  <si>
+    <t>Функция</t>
+  </si>
+  <si>
+    <t>Коэффициент</t>
+  </si>
+  <si>
+    <t>Группа сложности</t>
+  </si>
+  <si>
+    <t>Характеристика ПС ВТ</t>
+  </si>
+  <si>
+    <t>- организация ввода информации</t>
+  </si>
+  <si>
+    <t>1. Оптимизационные расчеты;</t>
+  </si>
+  <si>
+    <t>- контроль</t>
+  </si>
+  <si>
+    <t>2. Обеспечение настройки ПС ВТ на изменение структур входных и выходных данных;</t>
+  </si>
+  <si>
+    <t>- управление вводом/выводом</t>
+  </si>
+  <si>
+    <t>3. Настройка ПС ВТ на нестандартную конфигурацию технических средств;</t>
+  </si>
+  <si>
+    <t>- формирование служебных таблиц</t>
+  </si>
+  <si>
+    <t>4. Обеспечение переносимости ПС ВТ;</t>
+  </si>
+  <si>
+    <t>- монитор ПС ВТ (управление работой компонентов)</t>
+  </si>
+  <si>
+    <t>5. Реализация особо сложных инженерных и научных расчетов.</t>
+  </si>
+  <si>
+    <t>- монитор системы (управление работой комплекса ПС ВТ)</t>
+  </si>
+  <si>
+    <t>- управление внешними устройствами и объектами</t>
+  </si>
+  <si>
+    <t>- обработка ошибочных и сбойных ситуаций</t>
+  </si>
+  <si>
+    <t>- справка и обучение</t>
+  </si>
+  <si>
+    <t>Норма времени</t>
+  </si>
+  <si>
+    <t>Степень охвата реализуемых функций ПС ВТ</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>типовых (стандартных) программ, %</t>
+  </si>
+  <si>
+    <r>
+      <t>К</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>т</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 40 – 60</t>
+  </si>
+  <si>
+    <t>ТЗ</t>
+  </si>
+  <si>
+    <t>ЭП</t>
+  </si>
+  <si>
+    <t>ТП</t>
+  </si>
+  <si>
+    <t>РП</t>
+  </si>
+  <si>
+    <t>ВН</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Ср</t>
+  </si>
+  <si>
+    <t>Фном</t>
+  </si>
+  <si>
+    <t>Фэо</t>
+  </si>
+  <si>
+    <t>Фэр</t>
+  </si>
+  <si>
+    <t>Коэффициент сложности</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1040,6 +1148,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1049,7 +1179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1124,11 +1254,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1165,14 +1382,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1193,7 +1471,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1205,6 +1483,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График безубыточности</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1214,26 +1517,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1277,12 +1560,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1292,12 +1569,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1339,12 +1610,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1354,12 +1619,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>46620.214630649753</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46620.214630649753</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1401,12 +1660,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1416,12 +1669,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>49920.214630649753</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46620.214630649753</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1463,12 +1710,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1478,12 +1719,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>57408.246825247217</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1497,11 +1732,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="350143232"/>
-        <c:axId val="350145152"/>
+        <c:axId val="223692528"/>
+        <c:axId val="225012456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="350143232"/>
+        <c:axId val="223692528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,15 +1790,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350145152"/>
+        <c:crossAx val="225012456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="350145152"/>
+        <c:axId val="225012456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,10 +1852,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350143232"/>
+        <c:crossAx val="223692528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1660,7 +1895,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1690,7 +1925,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1704,7 +1939,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="uk-UA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1715,6 +1950,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1726,58 +1965,221 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$79</c:f>
+              <c:f>Лист1!$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$67:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$75:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225013240"/>
+        <c:axId val="225015200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225013240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="225015200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="225015200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="225013240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График безубыточности</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8496323692445696E-2"/>
+          <c:y val="0.10602998956679111"/>
+          <c:w val="0.81719674987981117"/>
+          <c:h val="0.75904329612868304"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$I$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ИЭЭ</c:v>
+                  <c:v>Ипост</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Лист1!$C$67:$G$67</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+            <c:numRef>
+              <c:f>Лист2!$J$42:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2016 г</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017 г</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018 г</c:v>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>8.4994968691212733</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2019 г</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020 г</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$79:$G$79</c:f>
+              <c:f>Лист2!$J$43:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-33010</c:v>
+                  <c:v>36394.422423282987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-27040.586579561968</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-12117.053028466902</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>255.7745330277321</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1955.3387585077642</c:v>
+                  <c:v>36394.422423282987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,58 +2191,68 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$77</c:f>
+              <c:f>Лист2!$I$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Прt</c:v>
+                  <c:v>Иперем</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Лист1!$C$67:$G$67</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+            <c:numRef>
+              <c:f>Лист2!$J$42:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2016 г</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017 г</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018 г</c:v>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>8.4994968691212733</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2019 г</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020 г</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$77:$G$77</c:f>
+              <c:f>Лист2!$J$44:$L$44</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-2063.125</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>6439.4422423282995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5424.9071945974647</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18903.365144872896</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17405.758705953402</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>932.08787783898515</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,62 +2260,72 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$75</c:f>
+              <c:f>Лист2!$I$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ЧДДП</c:v>
+                  <c:v>Иполн</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Лист1!$C$67:$G$67</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+            <c:numRef>
+              <c:f>Лист2!$J$42:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2016 г</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017 г</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018 г</c:v>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>8.4994968691212733</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2019 г</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020 г</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$75:$G$75</c:f>
+              <c:f>Лист2!$J$45:$L$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-33010</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>42833.864665611283</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5969.4134204380298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14923.533551095066</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12372.827561494634</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1699.5642254800321</c:v>
+                  <c:v>36394.422423282987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,58 +2337,112 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$72</c:f>
+              <c:f>Лист2!$I$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ЧДП</c:v>
+                  <c:v>В</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5154638857622872E-2"/>
+                  <c:y val="0.56030946225643175"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
-            <c:strRef>
-              <c:f>Лист1!$C$67:$G$67</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+            <c:numRef>
+              <c:f>Лист2!$J$42:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2016 г</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017 г</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018 г</c:v>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>8.4994968691212733</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2019 г</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020 г</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$72:$G$72</c:f>
+              <c:f>Лист2!$J$46:$L$46</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-33010</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>49258.944365452975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7488.0321945974647</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>20966.490144872896</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19468.883705953402</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2995.2128778389852</c:v>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>41867.624341038652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,25 +2457,325 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372501888"/>
-        <c:axId val="372500352"/>
+        <c:axId val="225015984"/>
+        <c:axId val="225016376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372501888"/>
+        <c:axId val="225015984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372500352"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225016376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372500352"/>
+        <c:axId val="225016376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225015984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6453909298925718E-2"/>
+          <c:y val="3.6301539471990836E-2"/>
+          <c:w val="0.87980238621624196"/>
+          <c:h val="0.91749042240229484"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$C$67:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$75:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2731.7515730619466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7024.5040450164197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24310.280600484512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40108.585945048995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225018336"/>
+        <c:axId val="225014808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225018336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="225014808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="225014808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,16 +2786,637 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372501888"/>
+        <c:crossAx val="225018336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+          <a:alpha val="99000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График безубыточности</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ипост</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$J$42:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$J$43:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>37275.619185384872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37275.619185384872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$I$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Иперем</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$J$42:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$J$44:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>5027.5619185384876</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Иполн</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$J$42:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$J$45:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>42303.181103923358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37275.619185384872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$I$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>В</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$J$42:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$J$46:$K$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>48648.658269511863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225013632"/>
+        <c:axId val="225011672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225013632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225011672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="225011672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225013632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ИЭЭ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$C$67:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$C$75:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-21840</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-24537.906958158379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11439.809560849295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5631.8075312920591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21234.382207742958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225019120"/>
+        <c:axId val="248293416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225019120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="248293416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="248293416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="225019120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2069,20 +3466,158 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>544285</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>23132</xdr:rowOff>
+      <xdr:colOff>371927</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>598713</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>231321</xdr:rowOff>
+      <xdr:colOff>426355</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>437213</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>218606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>468443</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>60004</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>405983</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>136007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>499224</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>52050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>402383</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>220047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>429033</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>59958</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>303095</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>49965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>357523</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>270275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2142,7 +3677,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2177,7 +3712,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2386,485 +3921,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:K87"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="25.85546875" style="8" customWidth="1"/>
-    <col min="3" max="7" width="17.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.1796875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="8" customWidth="1"/>
+    <col min="3" max="4" width="17.7265625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="55" style="8" customWidth="1"/>
+    <col min="6" max="7" width="17.7265625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="8" customWidth="1"/>
     <col min="14" max="14" width="15" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="12.81640625" style="8" customWidth="1"/>
     <col min="18" max="18" width="13" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="8"/>
+    <col min="19" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+    <row r="1" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="26">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="27">
+        <v>2</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1.05</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="26">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="26">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="34">
+        <v>4.55</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" s="35"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" ht="80" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="34">
+        <v>3.25</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="41">
+        <v>2.6</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="44">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12"/>
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>18.855</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="B14">
+        <f>A14*(1+B11)</f>
+        <v>347.25600000000003</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" ht="21.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="39">
+        <v>0.7</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21">
+        <v>0.11</v>
+      </c>
+      <c r="C21">
+        <f>B21*$B$14</f>
+        <v>38.198160000000001</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22">
+        <v>0.09</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C25" si="0">B22*$B$14</f>
+        <v>31.253040000000002</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23">
+        <v>0.11</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>38.198160000000001</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C24">
+        <f>B24*$B$14*B18</f>
+        <v>133.69356000000002</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>48.615840000000006</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26">
+        <f>SUM(B21:B25)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="8">
-        <v>24</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <f>100/H4</f>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:9" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="10">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="12">
-        <v>2.5299999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="C26">
+        <f>SUM(C21:C25)</f>
+        <v>289.95876000000004</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28">
+        <f>C26/(1*20.56*8)</f>
+        <v>1.7628815661478603</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30">
         <v>1974</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="12">
-        <f>D34</f>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="62.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="12">
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1904.91</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5">
-        <f>E24*E10/100</f>
-        <v>1890</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7">
-        <f>E14*E13*E11*E12*E17</f>
-        <v>1223.5838999999996</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6">
-        <f>E25*11.8*E17</f>
-        <v>118000</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.4">
-      <c r="B31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6">
-        <f>D30*E22/100</f>
-        <v>40356.000000000007</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="2:10" ht="23.25" x14ac:dyDescent="0.4">
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6">
-        <f>E10*E16/100</f>
-        <v>1620</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" ht="23.25" x14ac:dyDescent="0.4">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31">
+        <f>$B$30*(1-C31/100)</f>
+        <v>1904.9099999999999</v>
+      </c>
+      <c r="C31">
+        <v>3.5</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32">
+        <f>$B$30*(1-C32/100)</f>
+        <v>1746.99</v>
+      </c>
+      <c r="C32">
+        <v>11.5</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33" s="6"/>
-      <c r="B33" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="6">
-        <f>(D30+D32+D31+D29+D28)*E23/100</f>
-        <v>35879.708458000001</v>
-      </c>
+      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34" s="6"/>
-      <c r="B34" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="6">
-        <f>100/E26</f>
-        <v>4.166666666666667</v>
-      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" ht="23.25" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A35" s="6"/>
-      <c r="B35" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="6">
-        <f>E10*D34*11.8/100</f>
-        <v>13275.000000000002</v>
-      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" ht="23.25" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A36" s="6"/>
-      <c r="B36" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="6">
-        <f>D35+D33+D32+D31+D30+D29+D28</f>
-        <v>212244.29235800001</v>
-      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="F36" s="14"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" ht="23.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A37" s="6"/>
-      <c r="B37" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6">
-        <f>D36/(C27*E17)</f>
-        <v>111.41959061477969</v>
-      </c>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="F37" s="14"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2877,55 +4398,782 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A39" s="6"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A40" s="6"/>
+      <c r="B40" s="15"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A41" s="6"/>
+      <c r="B41" s="15"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A42" s="6"/>
+      <c r="B42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A43" s="6"/>
+      <c r="B43" s="15"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A44" s="6"/>
+      <c r="B44" s="15"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="18"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A45" s="6"/>
+      <c r="B45" s="15"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="19"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A46" s="6"/>
+      <c r="B46" s="15"/>
+      <c r="F46" s="20"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="18"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B58" s="6"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B73" s="17"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:O86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="52" workbookViewId="0">
+      <selection activeCell="T75" sqref="T75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" style="8"/>
+    <col min="2" max="2" width="25.81640625" style="8" customWidth="1"/>
+    <col min="3" max="7" width="17.7265625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="26.1796875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="15" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="12.81640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="13" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>24</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <f>100/H4</f>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="2:9" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="12">
+        <f>D34</f>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="83" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="45" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="62.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="62.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="12">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="I22" s="8">
+        <f>327*1.06</f>
+        <v>346.62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="83" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="103.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="21.5" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1904.91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5">
+        <f>E24*E10/100</f>
+        <v>1890</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7">
+        <f>E14*E13*E11*E12*E17</f>
+        <v>1223.5838999999996</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <f>E25*11.8*E17</f>
+        <v>118000</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" ht="24" x14ac:dyDescent="0.6">
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6">
+        <f>D30*E22/100</f>
+        <v>40356.000000000007</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="2:10" ht="24" x14ac:dyDescent="0.6">
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
+        <f>E10*E16/100</f>
+        <v>1620</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" ht="24" x14ac:dyDescent="0.6">
+      <c r="A33" s="6"/>
+      <c r="B33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6">
+        <f>(D30+D32+D31+D29+D28)*E23/100</f>
+        <v>35879.708458000001</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A34" s="6"/>
+      <c r="B34" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="6">
+        <f>100/E26</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" ht="24" x14ac:dyDescent="0.6">
+      <c r="A35" s="6"/>
+      <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6">
+        <f>E10*D34*11.8/100</f>
+        <v>13275.000000000002</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:15" ht="24" x14ac:dyDescent="0.6">
+      <c r="A36" s="6"/>
+      <c r="B36" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="6">
+        <f>D35+D33+D32+D31+D30+D29+D28</f>
+        <v>212244.29235800001</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:15" ht="24" x14ac:dyDescent="0.6">
+      <c r="A37" s="6"/>
+      <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6">
+        <f>D36/(C27*E17)</f>
+        <v>111.41959061477969</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A39" s="6"/>
       <c r="B39" s="15"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" s="6">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A40" s="6"/>
       <c r="B40" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D40" s="8">
         <f>1*G40*E25</f>
-        <v>6599.9999999999991</v>
+        <v>7600</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G40" s="8">
         <f>G39-G41</f>
-        <v>0.65999999999999992</v>
+        <v>0.76</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A41" s="6"/>
       <c r="B41" s="15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D41" s="8">
         <f>G42*D40</f>
-        <v>1979.9999999999995</v>
+        <v>2280</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" s="8">
         <v>1</v>
@@ -2935,179 +5183,193 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A42" s="6"/>
       <c r="B42" s="15" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D42" s="8">
         <f>D40+D41</f>
-        <v>8579.9999999999982</v>
+        <v>9880</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G42" s="8">
         <v>0.3</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20">
+      <c r="I42" s="18"/>
+      <c r="J42" s="18">
         <v>10</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K42" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L42" s="19">
+        <f>N44</f>
+        <v>8.4994968691212733</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A43" s="6"/>
       <c r="B43" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D43" s="8">
         <f>0.342*D42</f>
-        <v>2934.3599999999997</v>
+        <v>3378.96</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="J43" s="21">
-        <f>D47</f>
-        <v>46620.214630649753</v>
-      </c>
-      <c r="K43" s="21">
-        <f>D47</f>
-        <v>46620.214630649753</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I43" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J43" s="19">
+        <f>D48</f>
+        <v>36394.422423282987</v>
+      </c>
+      <c r="K43" s="19">
+        <f>D48</f>
+        <v>36394.422423282987</v>
+      </c>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A44" s="6"/>
       <c r="B44" s="15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D44" s="8">
         <f>D42+D43</f>
-        <v>11514.359999999997</v>
+        <v>13258.96</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J44" s="21">
+      <c r="I44" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J44" s="19">
         <f>D61</f>
-        <v>3300</v>
-      </c>
-      <c r="K44" s="20">
+        <v>6439.4422423282995</v>
+      </c>
+      <c r="K44" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L44" s="19"/>
+      <c r="M44" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N44" s="18">
+        <f>J43/(N45-O45)</f>
+        <v>8.4994968691212733</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A45" s="6"/>
       <c r="B45" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D45" s="8">
         <f>E23/100*D44</f>
-        <v>2533.1591999999991</v>
+        <v>2916.9712</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="J45" s="20">
+      <c r="I45" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J45" s="18">
         <f>J43+J44</f>
-        <v>49920.214630649753</v>
-      </c>
-      <c r="K45" s="21">
+        <v>42833.864665611283</v>
+      </c>
+      <c r="K45" s="19">
         <f>J43</f>
-        <v>46620.214630649753</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36394.422423282987</v>
+      </c>
+      <c r="L45" s="19"/>
+      <c r="N45" s="18">
+        <f>J46/10</f>
+        <v>4925.8944365452971</v>
+      </c>
+      <c r="O45" s="18">
+        <f>J44/10</f>
+        <v>643.94422423282992</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A46" s="6"/>
       <c r="B46" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D46" s="8">
-        <f>G39*D37*168*G41</f>
-        <v>31072.695430649757</v>
-      </c>
+        <f>G41*168*D37</f>
+        <v>18718.491223282988</v>
+      </c>
+      <c r="F46" s="20"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="J46" s="21">
+      <c r="I46" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" s="19">
         <f>D62</f>
-        <v>57408.246825247217</v>
-      </c>
-      <c r="K46" s="20">
+        <v>49258.944365452975</v>
+      </c>
+      <c r="K46" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L46" s="19">
+        <f>N45*N44</f>
+        <v>41867.624341038652</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B47" s="8" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D47" s="8">
-        <f>D46+D44+D45+1500</f>
-        <v>46620.214630649753</v>
-      </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="8">
+        <f>D46+D44+D45+D47</f>
+        <v>36394.422423282987</v>
+      </c>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20">
-        <f>J46/10</f>
-        <v>5740.8246825247215</v>
-      </c>
-      <c r="K49" s="20">
-        <f>J44/10</f>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I49" s="18"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20">
-        <f>J43/(J49-K49)</f>
-        <v>8.6161014939586806</v>
-      </c>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B52" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -3116,216 +5378,213 @@
         <v>27000</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G52" s="6">
         <v>2500</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B53" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E53" s="8">
         <f>0.05*E52</f>
         <v>1350</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E54" s="8">
         <f>0.08*E52</f>
         <v>2160</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="8">
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E56" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="8">
         <v>800</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="E57" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F57" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+        <f>0.1*D48</f>
+        <v>3639.442242328299</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D58" s="8">
         <f>E52+G52+E53+E54</f>
         <v>33010</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D59" s="8">
         <f>D60+D61</f>
-        <v>49920.214630649753</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+        <v>42833.864665611283</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D60" s="8">
-        <f>D47</f>
-        <v>46620.214630649753</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+        <f>D48</f>
+        <v>36394.422423282987</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D61" s="8">
         <f>F55+F56+F57</f>
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+        <v>6439.4422423282995</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D62" s="8">
         <f>D59+D63</f>
-        <v>57408.246825247217</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+        <v>49258.944365452975</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D63" s="8">
         <f>D59*0.15</f>
-        <v>7488.0321945974629</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+        <v>6425.0796998416927</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D64" s="8">
         <f>D62/D65</f>
-        <v>5740.8246825247215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4925.8944365452971</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B65" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D65" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B67" s="16"/>
-      <c r="C67" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C67" s="16">
+        <v>2016</v>
+      </c>
+      <c r="D67" s="16">
+        <v>2017</v>
+      </c>
+      <c r="E67" s="16">
+        <v>2018</v>
+      </c>
+      <c r="F67" s="16">
+        <v>2019</v>
+      </c>
+      <c r="G67" s="16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B68" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68" s="16">
         <v>0</v>
       </c>
       <c r="D68" s="16">
-        <f>$D$64*D71</f>
-        <v>57408.246825247217</v>
+        <v>8</v>
       </c>
       <c r="E68" s="16">
-        <f>$D$64*E71</f>
-        <v>45926.597460197772</v>
+        <v>8</v>
       </c>
       <c r="F68" s="16">
-        <f>$D$64*F71</f>
-        <v>34444.948095148327</v>
+        <v>9</v>
       </c>
       <c r="G68" s="16">
-        <f>$D$64*G71</f>
-        <v>22963.298730098886</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B69" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C69" s="16">
+        <v>0</v>
+      </c>
+      <c r="D69" s="16">
+        <f>$D$64*D68</f>
+        <v>39407.155492362377</v>
+      </c>
+      <c r="E69" s="16">
+        <f>$D$64*E68</f>
+        <v>39407.155492362377</v>
+      </c>
+      <c r="F69" s="16">
+        <f>$D$64*F68</f>
+        <v>44333.049928907676</v>
+      </c>
+      <c r="G69" s="16">
+        <f>$D$64*G68</f>
+        <v>49258.944365452975</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B70" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="16">
         <f>D58</f>
         <v>33010</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D70" s="16">
         <v>0</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E70" s="16">
         <v>0</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F70" s="16">
         <v>0</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G70" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B70" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="16">
-        <v>0</v>
-      </c>
-      <c r="D70" s="16">
-        <f>D59</f>
-        <v>49920.214630649753</v>
-      </c>
-      <c r="E70" s="16">
-        <f>0.5*$D$70</f>
-        <v>24960.107315324876</v>
-      </c>
-      <c r="F70" s="16">
-        <f>0.3*$D$70</f>
-        <v>14976.064389194926</v>
-      </c>
-      <c r="G70" s="16">
-        <f>0.4*$D$70</f>
-        <v>19968.085852259901</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B71" s="16" t="s">
         <v>83</v>
       </c>
@@ -3333,247 +5592,230 @@
         <v>0</v>
       </c>
       <c r="D71" s="16">
-        <v>10</v>
+        <f>D59</f>
+        <v>42833.864665611283</v>
       </c>
       <c r="E71" s="16">
-        <v>8</v>
+        <f>0.6*$D$71</f>
+        <v>25700.318799366771</v>
       </c>
       <c r="F71" s="16">
-        <v>6</v>
+        <f>0.4*$D$71</f>
+        <v>17133.545866244513</v>
       </c>
       <c r="G71" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+        <f>0.5*$D$71</f>
+        <v>21416.932332805642</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C72" s="16">
-        <f>C68-(C69+C70)</f>
+        <f>C69-(C70+C71)</f>
         <v>-33010</v>
       </c>
       <c r="D72" s="16">
-        <f>D68-(D69+D70)</f>
-        <v>7488.0321945974647</v>
+        <f>D69-(D70+D71)</f>
+        <v>-3426.7091732489062</v>
       </c>
       <c r="E72" s="16">
-        <f>E68-(E69+E70)</f>
-        <v>20966.490144872896</v>
+        <f>E69-(E70+E71)</f>
+        <v>13706.836692995606</v>
       </c>
       <c r="F72" s="16">
-        <f>F68-(F69+F70)</f>
-        <v>19468.883705953402</v>
+        <f>F69-(F70+F71)</f>
+        <v>27199.504062663163</v>
       </c>
       <c r="G72" s="16">
-        <f t="shared" ref="D72:G72" si="0">G68-(G69+G70)</f>
-        <v>2995.2128778389852</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B73" s="16" t="s">
-        <v>91</v>
+        <f>G69-(G70+G71)</f>
+        <v>27842.012032647333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B73" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="C73" s="16">
+        <f>1/(1+C80)^0</f>
         <v>1</v>
       </c>
       <c r="D73" s="16">
-        <v>2</v>
+        <f>1/(1+$C$80)^2</f>
+        <v>0.79719387755102034</v>
       </c>
       <c r="E73" s="16">
-        <v>3</v>
+        <f>1/(1+$C$80)^3</f>
+        <v>0.71178024781341087</v>
       </c>
       <c r="F73" s="16">
-        <v>4</v>
+        <f>1/(1+$C$80)^4</f>
+        <v>0.63551807840483121</v>
       </c>
       <c r="G73" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B74" s="17" t="s">
-        <v>94</v>
+        <f>1/(1+$C$80)^5</f>
+        <v>0.56742685571859919</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A74" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="C74" s="16">
-        <f>1/(1+C81)^0</f>
-        <v>1</v>
+        <f>C72*C73</f>
+        <v>-33010</v>
       </c>
       <c r="D74" s="16">
-        <f>1/(1+$C$81)^2</f>
-        <v>0.79719387755102034</v>
+        <f>D72*D73</f>
+        <v>-2731.7515730619466</v>
       </c>
       <c r="E74" s="16">
-        <f>1/(1+$C$81)^3</f>
-        <v>0.71178024781341087</v>
+        <f>E72*E73</f>
+        <v>9756.2556180783668</v>
       </c>
       <c r="F74" s="16">
-        <f>1/(1+$C$81)^4</f>
-        <v>0.63551807840483121</v>
+        <f>F72*F73</f>
+        <v>17285.776555468092</v>
       </c>
       <c r="G74" s="16">
-        <f>1/(1+$C$81)^5</f>
-        <v>0.56742685571859919</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+        <f>G72*G73</f>
+        <v>15798.305344564482</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A75" s="8" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="16">
-        <f>C72*C74</f>
-        <v>-33010</v>
+        <v>0</v>
       </c>
       <c r="D75" s="16">
-        <f>D72*D74</f>
-        <v>5969.4134204380298</v>
+        <f>C75+D74</f>
+        <v>-2731.7515730619466</v>
       </c>
       <c r="E75" s="16">
-        <f>E72*E74</f>
-        <v>14923.533551095066</v>
+        <f>D75+E74</f>
+        <v>7024.5040450164197</v>
       </c>
       <c r="F75" s="16">
-        <f>F72*F74</f>
-        <v>12372.827561494634</v>
+        <f>E75+F74</f>
+        <v>24310.280600484512</v>
       </c>
       <c r="G75" s="16">
-        <f>G72*G74</f>
-        <v>1699.5642254800321</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+        <f>F75+G74</f>
+        <v>40108.585945048995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A76" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C76" s="16">
-        <f>$C$69/4</f>
-        <v>8252.5</v>
+        <f>$C$70/5</f>
+        <v>6602</v>
       </c>
       <c r="D76" s="16">
-        <f>$C$69/4</f>
-        <v>8252.5</v>
+        <f t="shared" ref="D76:G76" si="0">$C$70/5</f>
+        <v>6602</v>
       </c>
       <c r="E76" s="16">
-        <f>$C$69/4</f>
-        <v>8252.5</v>
+        <f t="shared" si="0"/>
+        <v>6602</v>
       </c>
       <c r="F76" s="16">
-        <f>$C$69/4</f>
-        <v>8252.5</v>
+        <f t="shared" si="0"/>
+        <v>6602</v>
       </c>
       <c r="G76" s="16">
-        <f>$C$69/4</f>
-        <v>8252.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>6602</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A77" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C77" s="16">
-        <f>C68-C70-C76/4</f>
-        <v>-2063.125</v>
+        <f>C69-C71-C76</f>
+        <v>-6602</v>
       </c>
       <c r="D77" s="16">
-        <f>D68-D70-D76/4</f>
-        <v>5424.9071945974647</v>
+        <f>D69-D71-D76</f>
+        <v>-10028.709173248906</v>
       </c>
       <c r="E77" s="16">
-        <f t="shared" ref="D77:G77" si="1">E68-E70-E76/4</f>
-        <v>18903.365144872896</v>
+        <f t="shared" ref="D77:G77" si="1">E69-E71-E76</f>
+        <v>7104.8366929956064</v>
       </c>
       <c r="F77" s="16">
         <f t="shared" si="1"/>
-        <v>17405.758705953402</v>
+        <v>20597.504062663163</v>
       </c>
       <c r="G77" s="16">
         <f t="shared" si="1"/>
-        <v>932.08787783898515</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+        <v>21240.012032647333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A78" s="8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C78" s="16">
-        <f>C77/$C$69</f>
-        <v>-6.25E-2</v>
+        <f>C77/$C$70*100</f>
+        <v>-20</v>
       </c>
       <c r="D78" s="16">
-        <f>D77/$C$69</f>
-        <v>0.16434132670698165</v>
+        <f>D77/$C$70*100</f>
+        <v>-30.380821488182086</v>
       </c>
       <c r="E78" s="16">
-        <f>E77/$C$69</f>
-        <v>0.57265571477954846</v>
+        <f t="shared" ref="E78:G78" si="2">E77/$C$70*100</f>
+        <v>21.523285952728283</v>
       </c>
       <c r="F78" s="16">
-        <f>F77/$C$69</f>
-        <v>0.52728744943815209</v>
+        <f t="shared" si="2"/>
+        <v>62.39777056244521</v>
       </c>
       <c r="G78" s="16">
-        <f>G77/$C$69</f>
-        <v>2.8236530682792645E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C79" s="16">
-        <f>-C69</f>
-        <v>-33010</v>
-      </c>
-      <c r="D79" s="16">
-        <f>C79+D75</f>
-        <v>-27040.586579561968</v>
-      </c>
-      <c r="E79" s="16">
-        <f>D79+E75</f>
-        <v>-12117.053028466902</v>
-      </c>
-      <c r="F79" s="16">
-        <f>E79+F75</f>
-        <v>255.7745330277321</v>
-      </c>
-      <c r="G79" s="16">
-        <f>F79+G75</f>
-        <v>1955.3387585077642</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B81" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="8">
+        <f t="shared" si="2"/>
+        <v>64.344174591479359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B80" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="8">
         <v>0.12</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B84" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B87" s="8" t="s">
-        <v>120</v>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B83" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B86" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3582,7 +5824,1199 @@
     <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:K86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" zoomScale="49" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" style="8"/>
+    <col min="2" max="2" width="25.81640625" style="8" customWidth="1"/>
+    <col min="3" max="7" width="17.7265625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="15" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="12.81640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="13" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>24</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <f>100/H4</f>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="H7" s="8">
+        <f>H6*G39</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="2:9" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="12">
+        <f>H6</f>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="83" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="45" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="62.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="62.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="12">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="83" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="103.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="12">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="21.5" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1885.17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5">
+        <f>E24*E10/100</f>
+        <v>1080</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7">
+        <f>E14*E13*E11*E12*E17</f>
+        <v>663.26400000000001</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <f>E25*11.8*E17</f>
+        <v>188800</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" ht="24" x14ac:dyDescent="0.6">
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6">
+        <f>D30*E22/100</f>
+        <v>64569.600000000006</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="2:10" ht="24" x14ac:dyDescent="0.6">
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
+        <f>E10*E16/100</f>
+        <v>900</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="24" x14ac:dyDescent="0.6">
+      <c r="A33" s="6"/>
+      <c r="B33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6">
+        <f>(D30+D32+D31+D29+D28)*E23/100</f>
+        <v>58882.958720000002</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A34" s="6"/>
+      <c r="B34" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="6">
+        <f>100/E26*G39</f>
+        <v>5</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" ht="24" x14ac:dyDescent="0.6">
+      <c r="A35" s="6"/>
+      <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6">
+        <f>E10*D34*11.8/100</f>
+        <v>10620</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" ht="24" x14ac:dyDescent="0.6">
+      <c r="A36" s="6"/>
+      <c r="B36" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="6">
+        <f>D35+D33+D32+D31+D30+D29+D28</f>
+        <v>325515.82272</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" ht="24" x14ac:dyDescent="0.6">
+      <c r="A37" s="6"/>
+      <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6">
+        <f>D36/(C27*E17)</f>
+        <v>172.67186657967184</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A39" s="6"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A40" s="6"/>
+      <c r="B40" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="8">
+        <f>1*G40*E25</f>
+        <v>3199.9999999999991</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="8">
+        <f>G39-G41</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A41" s="6"/>
+      <c r="B41" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="8">
+        <f>G42*D40</f>
+        <v>959.99999999999966</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A42" s="6"/>
+      <c r="B42" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="8">
+        <f>D40+D41</f>
+        <v>4159.9999999999991</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18">
+        <v>10</v>
+      </c>
+      <c r="K42" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A43" s="6"/>
+      <c r="B43" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="8">
+        <f>0.342*D42</f>
+        <v>1422.7199999999998</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J43" s="19">
+        <f>D48</f>
+        <v>37275.619185384872</v>
+      </c>
+      <c r="K43" s="19">
+        <f>D48</f>
+        <v>37275.619185384872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A44" s="6"/>
+      <c r="B44" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="8">
+        <f>D42+D43</f>
+        <v>5582.7199999999993</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J44" s="19">
+        <f>D61</f>
+        <v>5027.5619185384876</v>
+      </c>
+      <c r="K44" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A45" s="6"/>
+      <c r="B45" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="8">
+        <f>E23/100*D44</f>
+        <v>1284.0255999999999</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J45" s="18">
+        <f>J43+J44</f>
+        <v>42303.181103923358</v>
+      </c>
+      <c r="K45" s="19">
+        <f>J43</f>
+        <v>37275.619185384872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A46" s="6"/>
+      <c r="B46" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="8">
+        <f>G41*168*D37</f>
+        <v>29008.87358538487</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" s="19">
+        <f>D62</f>
+        <v>48648.658269511863</v>
+      </c>
+      <c r="K46" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B47" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1400</v>
+      </c>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18">
+        <f>J46/10</f>
+        <v>4864.8658269511861</v>
+      </c>
+      <c r="K47" s="18">
+        <f>J44/10</f>
+        <v>502.75619185384875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="8">
+        <f>D46+D44+D45+D47</f>
+        <v>37275.619185384872</v>
+      </c>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18">
+        <f>J43/(J47-K47)</f>
+        <v>8.545319192683035</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="I49" s="18"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B51" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6">
+        <f>E10</f>
+        <v>18000</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B53" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="8">
+        <f>0.05*E52</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B54" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="8">
+        <f>0.08*E52</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B55" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="E56" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="E57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="8">
+        <f>0.1*D48</f>
+        <v>3727.5619185384876</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B58" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="8">
+        <f>E52+G52+E53+E54</f>
+        <v>21840</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B59" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="8">
+        <f>D60+D61</f>
+        <v>42303.181103923358</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B60" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="8">
+        <f>D48</f>
+        <v>37275.619185384872</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B61" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="8">
+        <f>F55+F56+F57</f>
+        <v>5027.5619185384876</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B62" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="8">
+        <f>D59+D63</f>
+        <v>48648.658269511863</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B63" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="8">
+        <f>D59*0.15</f>
+        <v>6345.4771655885033</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B64" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="8">
+        <f>D62/D65</f>
+        <v>4864.8658269511861</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B65" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B67" s="16"/>
+      <c r="C67" s="16">
+        <v>2016</v>
+      </c>
+      <c r="D67" s="16">
+        <v>2017</v>
+      </c>
+      <c r="E67" s="16">
+        <v>2018</v>
+      </c>
+      <c r="F67" s="16">
+        <v>2019</v>
+      </c>
+      <c r="G67" s="16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B68" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="16">
+        <v>0</v>
+      </c>
+      <c r="D68" s="16">
+        <v>8</v>
+      </c>
+      <c r="E68" s="16">
+        <v>9</v>
+      </c>
+      <c r="F68" s="16">
+        <v>9</v>
+      </c>
+      <c r="G68" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B69" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="16">
+        <v>0</v>
+      </c>
+      <c r="D69" s="16">
+        <f>$D$64*D68</f>
+        <v>38918.926615609489</v>
+      </c>
+      <c r="E69" s="16">
+        <f>$D$64*E68</f>
+        <v>43783.792442560676</v>
+      </c>
+      <c r="F69" s="16">
+        <f>$D$64*F68</f>
+        <v>43783.792442560676</v>
+      </c>
+      <c r="G69" s="16">
+        <f>$D$64*G68</f>
+        <v>48648.658269511863</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B70" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="16">
+        <f>D58</f>
+        <v>21840</v>
+      </c>
+      <c r="D70" s="16">
+        <v>0</v>
+      </c>
+      <c r="E70" s="16">
+        <v>0</v>
+      </c>
+      <c r="F70" s="16">
+        <v>0</v>
+      </c>
+      <c r="G70" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B71" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="16">
+        <v>0</v>
+      </c>
+      <c r="D71" s="16">
+        <f>D59</f>
+        <v>42303.181103923358</v>
+      </c>
+      <c r="E71" s="16">
+        <f>0.6*$D$71</f>
+        <v>25381.908662354013</v>
+      </c>
+      <c r="F71" s="16">
+        <f>0.4*$D$71</f>
+        <v>16921.272441569345</v>
+      </c>
+      <c r="G71" s="16">
+        <f>0.5*$D$71</f>
+        <v>21151.590551961679</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A72" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="16">
+        <f>C69-(C70+C71)</f>
+        <v>-21840</v>
+      </c>
+      <c r="D72" s="16">
+        <f>D69-(D70+D71)</f>
+        <v>-3384.2544883138689</v>
+      </c>
+      <c r="E72" s="16">
+        <f>E69-(E70+E71)</f>
+        <v>18401.883780206663</v>
+      </c>
+      <c r="F72" s="16">
+        <f>F69-(F70+F71)</f>
+        <v>26862.520000991331</v>
+      </c>
+      <c r="G72" s="16">
+        <f>G69-(G70+G71)</f>
+        <v>27497.067717550184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B73" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="16">
+        <f>1/(1+C80)^0</f>
+        <v>1</v>
+      </c>
+      <c r="D73" s="16">
+        <f>1/(1+$C$80)^2</f>
+        <v>0.79719387755102034</v>
+      </c>
+      <c r="E73" s="16">
+        <f>1/(1+$C$80)^3</f>
+        <v>0.71178024781341087</v>
+      </c>
+      <c r="F73" s="16">
+        <f>1/(1+$C$80)^4</f>
+        <v>0.63551807840483121</v>
+      </c>
+      <c r="G73" s="16">
+        <f>1/(1+$C$80)^5</f>
+        <v>0.56742685571859919</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A74" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="16">
+        <f>C72*C73</f>
+        <v>-21840</v>
+      </c>
+      <c r="D74" s="16">
+        <f>D72*D73</f>
+        <v>-2697.9069581583776</v>
+      </c>
+      <c r="E74" s="16">
+        <f>E72*E73</f>
+        <v>13098.097397309084</v>
+      </c>
+      <c r="F74" s="16">
+        <f>F72*F73</f>
+        <v>17071.617092141354</v>
+      </c>
+      <c r="G74" s="16">
+        <f>G72*G73</f>
+        <v>15602.5746764509</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A75" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="16">
+        <f>C74</f>
+        <v>-21840</v>
+      </c>
+      <c r="D75" s="16">
+        <f>C75+D74</f>
+        <v>-24537.906958158379</v>
+      </c>
+      <c r="E75" s="16">
+        <f>D75+E74</f>
+        <v>-11439.809560849295</v>
+      </c>
+      <c r="F75" s="16">
+        <f>E75+F74</f>
+        <v>5631.8075312920591</v>
+      </c>
+      <c r="G75" s="16">
+        <f>F75+G74</f>
+        <v>21234.382207742958</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A76" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="16">
+        <f>$C$70/5</f>
+        <v>4368</v>
+      </c>
+      <c r="D76" s="16">
+        <f t="shared" ref="D76:G76" si="0">$C$70/5</f>
+        <v>4368</v>
+      </c>
+      <c r="E76" s="16">
+        <f t="shared" si="0"/>
+        <v>4368</v>
+      </c>
+      <c r="F76" s="16">
+        <f t="shared" si="0"/>
+        <v>4368</v>
+      </c>
+      <c r="G76" s="16">
+        <f t="shared" si="0"/>
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A77" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="16">
+        <f>C69-C71-C76</f>
+        <v>-4368</v>
+      </c>
+      <c r="D77" s="16">
+        <f t="shared" ref="D77:G77" si="1">D69-D71-D76</f>
+        <v>-7752.2544883138689</v>
+      </c>
+      <c r="E77" s="16">
+        <f t="shared" si="1"/>
+        <v>14033.883780206663</v>
+      </c>
+      <c r="F77" s="16">
+        <f t="shared" si="1"/>
+        <v>22494.520000991331</v>
+      </c>
+      <c r="G77" s="16">
+        <f t="shared" si="1"/>
+        <v>23129.067717550184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A78" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="16">
+        <f>C77/$C$70*100</f>
+        <v>-20</v>
+      </c>
+      <c r="D78" s="16">
+        <f>D77/$C$70*100</f>
+        <v>-35.495670734037859</v>
+      </c>
+      <c r="E78" s="16">
+        <f t="shared" ref="E78:G78" si="2">E77/$C$70*100</f>
+        <v>64.257709616330871</v>
+      </c>
+      <c r="F78" s="16">
+        <f t="shared" si="2"/>
+        <v>102.99688645142551</v>
+      </c>
+      <c r="G78" s="16">
+        <f t="shared" si="2"/>
+        <v>105.90232471405763</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B80" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B83" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B86" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ЭОПР/ЭОПР_курсач.xlsx
+++ b/ЭОПР/ЭОПР_курсач.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9110" windowHeight="7100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9105" windowHeight="7095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1385,12 +1385,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1403,20 +1397,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1451,6 +1436,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1471,7 +1471,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1508,7 +1508,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1732,11 +1731,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="223692528"/>
-        <c:axId val="225012456"/>
+        <c:axId val="297125376"/>
+        <c:axId val="297127296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="223692528"/>
+        <c:axId val="297125376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,15 +1789,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225012456"/>
+        <c:crossAx val="297127296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225012456"/>
+        <c:axId val="297127296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,10 +1851,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223692528"/>
+        <c:crossAx val="297125376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1869,7 +1868,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1895,7 +1893,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1925,7 +1923,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1939,7 +1937,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1951,7 +1949,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1999,11 +1996,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225013240"/>
-        <c:axId val="225015200"/>
+        <c:axId val="297135488"/>
+        <c:axId val="297022592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225013240"/>
+        <c:axId val="297135488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,13 +2010,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225015200"/>
+        <c:crossAx val="297022592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225015200"/>
+        <c:axId val="297022592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,7 +2027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225013240"/>
+        <c:crossAx val="297135488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2050,7 +2047,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2164,7 +2161,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>8.4994968691212733</c:v>
+                  <c:v>8.4996371266779089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2176,10 +2173,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>36394.422423282987</c:v>
+                  <c:v>36455.754022961984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36394.422423282987</c:v>
+                  <c:v>36455.754022961984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2237,7 +2234,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>8.4994968691212733</c:v>
+                  <c:v>8.4996371266779089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,7 +2246,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>6439.4422423282995</c:v>
+                  <c:v>6445.5754022961992</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2310,7 +2307,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>8.4994968691212733</c:v>
+                  <c:v>8.4996371266779089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,10 +2319,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>42833.864665611283</c:v>
+                  <c:v>42901.329425258184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36394.422423282987</c:v>
+                  <c:v>36455.754022961984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2375,8 +2372,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.5154638857622872E-2"/>
-                  <c:y val="0.56030946225643175"/>
+                  <c:x val="-2.3690102303279666E-2"/>
+                  <c:y val="0.56599460990767991"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2424,7 +2421,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>8.4994968691212733</c:v>
+                  <c:v>8.4996371266779089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2436,13 +2433,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>49258.944365452975</c:v>
+                  <c:v>49336.528839046914</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>41867.624341038652</c:v>
+                  <c:v>41934.259222177847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2457,11 +2454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225015984"/>
-        <c:axId val="225016376"/>
+        <c:axId val="1389312"/>
+        <c:axId val="1390848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225015984"/>
+        <c:axId val="1389312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2515,15 +2512,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225016376"/>
+        <c:crossAx val="1390848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225016376"/>
+        <c:axId val="1390848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2577,10 +2574,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225015984"/>
+        <c:crossAx val="1389312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2620,7 +2617,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2650,7 +2647,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2664,7 +2661,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2728,16 +2725,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2731.7515730619466</c:v>
+                  <c:v>-2736.0541725292187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7024.5040450164197</c:v>
+                  <c:v>7035.5678722179964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24310.280600484512</c:v>
+                  <c:v>24348.57009993698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40108.585945048995</c:v>
+                  <c:v>40171.758300186324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2752,11 +2749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225018336"/>
-        <c:axId val="225014808"/>
+        <c:axId val="1415808"/>
+        <c:axId val="1425792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225018336"/>
+        <c:axId val="1415808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,13 +2766,13 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="225014808"/>
+        <c:crossAx val="1425792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225014808"/>
+        <c:axId val="1425792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,7 +2783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225018336"/>
+        <c:crossAx val="1415808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2830,7 +2827,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2867,7 +2864,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3075,11 +3071,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225013632"/>
-        <c:axId val="225011672"/>
+        <c:axId val="297789312"/>
+        <c:axId val="297790848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225013632"/>
+        <c:axId val="297789312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3133,15 +3129,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225011672"/>
+        <c:crossAx val="297790848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225011672"/>
+        <c:axId val="297790848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3195,10 +3191,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225013632"/>
+        <c:crossAx val="297789312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3212,7 +3208,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3238,7 +3233,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3268,7 +3263,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3282,7 +3277,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3294,7 +3289,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3375,11 +3369,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225019120"/>
-        <c:axId val="248293416"/>
+        <c:axId val="297680256"/>
+        <c:axId val="297714816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225019120"/>
+        <c:axId val="297680256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,13 +3386,13 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="248293416"/>
+        <c:crossAx val="297714816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248293416"/>
+        <c:axId val="297714816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3412,7 +3406,7 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="225019120"/>
+        <c:crossAx val="297680256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3677,7 +3671,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3712,7 +3706,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3923,169 +3917,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.1796875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="8" customWidth="1"/>
-    <col min="3" max="4" width="17.7265625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" style="8" customWidth="1"/>
     <col min="5" max="5" width="55" style="8" customWidth="1"/>
-    <col min="6" max="7" width="17.7265625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.26953125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="8" customWidth="1"/>
     <col min="14" max="14" width="15" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.453125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="8" customWidth="1"/>
     <col min="18" max="18" width="13" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="8"/>
+    <col min="19" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>119</v>
       </c>
       <c r="C1"/>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="24">
         <v>0.33500000000000002</v>
       </c>
       <c r="C2"/>
-      <c r="D2" s="27">
+      <c r="D2" s="40">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <v>1.05</v>
       </c>
       <c r="C3"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>3.2250000000000001</v>
       </c>
       <c r="C4"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>2.0049999999999999</v>
       </c>
       <c r="C5"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>1.5549999999999999</v>
       </c>
       <c r="C6"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="29">
         <v>4.55</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="35"/>
+      <c r="D7" s="30"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" ht="80" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:5" ht="80.099999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="29">
         <v>3.25</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="36">
         <v>2.6</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:5" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="39">
         <v>0.22500000000000001</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="37">
         <v>0.06</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12">
         <f>SUM(B2:B11)</f>
@@ -4095,7 +4089,7 @@
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -4104,7 +4098,7 @@
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>327.60000000000002</v>
       </c>
@@ -4116,61 +4110,61 @@
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="34" t="s">
         <v>138</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" ht="21.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="34" t="s">
         <v>140</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="34">
         <v>0.7</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -4184,7 +4178,7 @@
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -4198,7 +4192,7 @@
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -4212,7 +4206,7 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -4226,7 +4220,7 @@
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -4240,7 +4234,7 @@
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -4255,14 +4249,14 @@
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -4274,14 +4268,14 @@
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -4292,7 +4286,7 @@
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -4306,7 +4300,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -4320,7 +4314,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="1"/>
       <c r="C33" s="6"/>
@@ -4333,10 +4327,10 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -4346,7 +4340,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="1"/>
       <c r="C35" s="6"/>
@@ -4359,10 +4353,10 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="14"/>
@@ -4372,7 +4366,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="1"/>
       <c r="C37" s="6"/>
@@ -4385,7 +4379,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -4398,7 +4392,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="15"/>
       <c r="C39" s="6"/>
@@ -4411,7 +4405,7 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="15"/>
       <c r="H40" s="6"/>
@@ -4419,7 +4413,7 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="15"/>
       <c r="H41" s="6"/>
@@ -4427,7 +4421,7 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="15"/>
       <c r="F42" s="15"/>
@@ -4436,7 +4430,7 @@
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="15"/>
       <c r="H43" s="6"/>
@@ -4444,7 +4438,7 @@
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="15"/>
       <c r="H44" s="6"/>
@@ -4452,7 +4446,7 @@
       <c r="J44" s="19"/>
       <c r="K44" s="18"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="15"/>
       <c r="H45" s="6"/>
@@ -4460,7 +4454,7 @@
       <c r="J45" s="18"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="15"/>
       <c r="F46" s="20"/>
@@ -4469,17 +4463,17 @@
       <c r="J46" s="19"/>
       <c r="K46" s="18"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -4490,7 +4484,7 @@
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -4500,7 +4494,7 @@
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -4511,7 +4505,7 @@
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -4519,10 +4513,10 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -4530,7 +4524,7 @@
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -4538,7 +4532,7 @@
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -4546,7 +4540,7 @@
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -4554,7 +4548,7 @@
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -4562,7 +4556,7 @@
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -4570,7 +4564,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73" s="17"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
@@ -4578,7 +4572,7 @@
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -4586,7 +4580,7 @@
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
@@ -4594,7 +4588,7 @@
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -4602,7 +4596,7 @@
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
@@ -4610,7 +4604,7 @@
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -4632,30 +4626,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="52" workbookViewId="0">
-      <selection activeCell="T75" sqref="T75"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="8"/>
-    <col min="2" max="2" width="25.81640625" style="8" customWidth="1"/>
-    <col min="3" max="7" width="17.7265625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.26953125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="26.1796875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="25.85546875" style="8" customWidth="1"/>
+    <col min="3" max="7" width="17.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" style="8" customWidth="1"/>
     <col min="14" max="14" width="15" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.453125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="8" customWidth="1"/>
     <col min="18" max="18" width="13" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="8"/>
+    <col min="19" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -4666,7 +4660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -4675,8 +4669,8 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="10" spans="2:9" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:9" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
@@ -4690,7 +4684,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:9" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
@@ -4704,7 +4698,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:9" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
@@ -4716,7 +4710,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
@@ -4730,7 +4724,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
@@ -4744,7 +4738,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="11" t="s">
         <v>61</v>
       </c>
@@ -4758,7 +4752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:9" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
@@ -4772,7 +4766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
@@ -4784,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
@@ -4799,7 +4793,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="83" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>24</v>
       </c>
@@ -4813,7 +4807,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="45" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:10" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>62</v>
       </c>
@@ -4827,7 +4821,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="62.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:10" ht="62.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>27</v>
       </c>
@@ -4841,7 +4835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="62.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>30</v>
       </c>
@@ -4859,7 +4853,7 @@
         <v>346.62</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="83" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
@@ -4873,7 +4867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="103.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:10" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>34</v>
       </c>
@@ -4887,7 +4881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
         <v>36</v>
       </c>
@@ -4901,7 +4895,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="21.5" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:10" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
         <v>47</v>
       </c>
@@ -4915,7 +4909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
         <v>54</v>
       </c>
@@ -4923,7 +4917,7 @@
         <v>1904.91</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>90</v>
       </c>
@@ -4941,7 +4935,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
         <v>38</v>
       </c>
@@ -4959,7 +4953,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
         <v>88</v>
       </c>
@@ -4977,7 +4971,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="2:10" ht="24" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
@@ -4995,7 +4989,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="2:10" ht="24" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:10" ht="23.25" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>44</v>
       </c>
@@ -5012,7 +5006,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:15" ht="24" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:15" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>91</v>
@@ -5032,12 +5026,12 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="6">
         <f>100/E26</f>
         <v>4.166666666666667</v>
@@ -5052,7 +5046,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:15" ht="24" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:15" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>96</v>
@@ -5072,12 +5066,12 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:15" ht="24" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:15" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A36" s="6"/>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="6">
         <f>D35+D33+D32+D31+D30+D29+D28</f>
         <v>212244.29235800001</v>
@@ -5092,7 +5086,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:15" ht="24" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:15" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>53</v>
@@ -5112,7 +5106,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -5125,7 +5119,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="15"/>
       <c r="C39" s="6"/>
@@ -5135,42 +5129,43 @@
         <v>76</v>
       </c>
       <c r="G39" s="6">
-        <v>1.76</v>
+        <f>Лист1!B28</f>
+        <v>1.7628815661478603</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D40" s="8">
         <f>1*G40*E25</f>
-        <v>7600</v>
+        <v>7628.815661478603</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>77</v>
       </c>
       <c r="G40" s="8">
         <f>G39-G41</f>
-        <v>0.76</v>
+        <v>0.76288156614786029</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D41" s="8">
         <f>G42*D40</f>
-        <v>2280</v>
+        <v>2288.6446984435806</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>78</v>
@@ -5183,14 +5178,14 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="8">
         <f>D40+D41</f>
-        <v>9880</v>
+        <v>9917.4603599221846</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>72</v>
@@ -5208,17 +5203,17 @@
       </c>
       <c r="L42" s="19">
         <f>N44</f>
-        <v>8.4994968691212733</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
+        <v>8.4996371266779089</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D43" s="8">
         <f>0.342*D42</f>
-        <v>3378.96</v>
+        <v>3391.7714430933875</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="18" t="s">
@@ -5226,22 +5221,22 @@
       </c>
       <c r="J43" s="19">
         <f>D48</f>
-        <v>36394.422423282987</v>
+        <v>36455.754022961984</v>
       </c>
       <c r="K43" s="19">
         <f>D48</f>
-        <v>36394.422423282987</v>
+        <v>36455.754022961984</v>
       </c>
       <c r="L43" s="19"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="15" t="s">
         <v>97</v>
       </c>
       <c r="D44" s="8">
         <f>D42+D43</f>
-        <v>13258.96</v>
+        <v>13309.231803015573</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="18" t="s">
@@ -5249,7 +5244,7 @@
       </c>
       <c r="J44" s="19">
         <f>D61</f>
-        <v>6439.4422423282995</v>
+        <v>6445.5754022961992</v>
       </c>
       <c r="K44" s="18">
         <v>0</v>
@@ -5260,17 +5255,17 @@
       </c>
       <c r="N44" s="18">
         <f>J43/(N45-O45)</f>
-        <v>8.4994968691212733</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
+        <v>8.4996371266779089</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D45" s="8">
         <f>E23/100*D44</f>
-        <v>2916.9712</v>
+        <v>2928.0309966634259</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="18" t="s">
@@ -5278,23 +5273,23 @@
       </c>
       <c r="J45" s="18">
         <f>J43+J44</f>
-        <v>42833.864665611283</v>
+        <v>42901.329425258184</v>
       </c>
       <c r="K45" s="19">
         <f>J43</f>
-        <v>36394.422423282987</v>
+        <v>36455.754022961984</v>
       </c>
       <c r="L45" s="19"/>
       <c r="N45" s="18">
         <f>J46/10</f>
-        <v>4925.8944365452971</v>
+        <v>4933.6528839046914</v>
       </c>
       <c r="O45" s="18">
         <f>J44/10</f>
-        <v>643.94422423282992</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
+        <v>644.55754022961992</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="15" t="s">
         <v>75</v>
@@ -5310,17 +5305,17 @@
       </c>
       <c r="J46" s="19">
         <f>D62</f>
-        <v>49258.944365452975</v>
+        <v>49336.528839046914</v>
       </c>
       <c r="K46" s="18">
         <v>0</v>
       </c>
       <c r="L46" s="19">
         <f>N45*N44</f>
-        <v>41867.624341038652</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
+        <v>41934.259222177847</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
         <v>117</v>
       </c>
@@ -5328,17 +5323,17 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D48" s="8">
         <f>D46+D44+D45+D47</f>
-        <v>36394.422423282987</v>
+        <v>36455.754022961984</v>
       </c>
       <c r="L48" s="19"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -5348,7 +5343,7 @@
       <c r="I49" s="18"/>
       <c r="K49" s="18"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -5356,7 +5351,7 @@
       <c r="G50" s="6"/>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51" s="6" t="s">
         <v>57</v>
       </c>
@@ -5367,7 +5362,7 @@
       <c r="G51" s="6"/>
       <c r="I51" s="18"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52" s="6" t="s">
         <v>58</v>
       </c>
@@ -5384,7 +5379,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B53" s="8" t="s">
         <v>59</v>
       </c>
@@ -5393,7 +5388,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="8" t="s">
         <v>60</v>
       </c>
@@ -5402,7 +5397,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B55" s="8" t="s">
         <v>87</v>
       </c>
@@ -5413,7 +5408,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E56" s="8" t="s">
         <v>70</v>
       </c>
@@ -5421,16 +5416,16 @@
         <v>800</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E57" s="8" t="s">
         <v>89</v>
       </c>
       <c r="F57" s="8">
         <f>0.1*D48</f>
-        <v>3639.442242328299</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
+        <v>3645.5754022961987</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B58" s="6" t="s">
         <v>56</v>
       </c>
@@ -5439,61 +5434,61 @@
         <v>33010</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D59" s="8">
         <f>D60+D61</f>
-        <v>42833.864665611283</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.5">
+        <v>42901.329425258184</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D60" s="8">
         <f>D48</f>
-        <v>36394.422423282987</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.5">
+        <v>36455.754022961984</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D61" s="8">
         <f>F55+F56+F57</f>
-        <v>6439.4422423282995</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.5">
+        <v>6445.5754022961992</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D62" s="8">
         <f>D59+D63</f>
-        <v>49258.944365452975</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.5">
+        <v>49336.528839046914</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D63" s="8">
         <f>D59*0.15</f>
-        <v>6425.0796998416927</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.5">
+        <v>6435.1994137887277</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="8" t="s">
         <v>67</v>
       </c>
       <c r="D64" s="8">
         <f>D62/D65</f>
-        <v>4925.8944365452971</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+        <v>4933.6528839046914</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
         <v>79</v>
       </c>
@@ -5501,7 +5496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B67" s="16"/>
       <c r="C67" s="16">
         <v>2016</v>
@@ -5519,7 +5514,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B68" s="16" t="s">
         <v>81</v>
       </c>
@@ -5539,7 +5534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B69" s="16" t="s">
         <v>80</v>
       </c>
@@ -5548,22 +5543,22 @@
       </c>
       <c r="D69" s="16">
         <f>$D$64*D68</f>
-        <v>39407.155492362377</v>
+        <v>39469.223071237531</v>
       </c>
       <c r="E69" s="16">
         <f>$D$64*E68</f>
-        <v>39407.155492362377</v>
+        <v>39469.223071237531</v>
       </c>
       <c r="F69" s="16">
         <f>$D$64*F68</f>
-        <v>44333.049928907676</v>
+        <v>44402.875955142226</v>
       </c>
       <c r="G69" s="16">
         <f>$D$64*G68</f>
-        <v>49258.944365452975</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+        <v>49336.528839046914</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B70" s="16" t="s">
         <v>82</v>
       </c>
@@ -5584,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B71" s="16" t="s">
         <v>83</v>
       </c>
@@ -5593,22 +5588,22 @@
       </c>
       <c r="D71" s="16">
         <f>D59</f>
-        <v>42833.864665611283</v>
+        <v>42901.329425258184</v>
       </c>
       <c r="E71" s="16">
         <f>0.6*$D$71</f>
-        <v>25700.318799366771</v>
+        <v>25740.797655154911</v>
       </c>
       <c r="F71" s="16">
         <f>0.4*$D$71</f>
-        <v>17133.545866244513</v>
+        <v>17160.531770103273</v>
       </c>
       <c r="G71" s="16">
         <f>0.5*$D$71</f>
-        <v>21416.932332805642</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+        <v>21450.664712629092</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>108</v>
       </c>
@@ -5621,22 +5616,22 @@
       </c>
       <c r="D72" s="16">
         <f>D69-(D70+D71)</f>
-        <v>-3426.7091732489062</v>
+        <v>-3432.1063540206524</v>
       </c>
       <c r="E72" s="16">
         <f>E69-(E70+E71)</f>
-        <v>13706.836692995606</v>
+        <v>13728.42541608262</v>
       </c>
       <c r="F72" s="16">
         <f>F69-(F70+F71)</f>
-        <v>27199.504062663163</v>
+        <v>27242.344185038954</v>
       </c>
       <c r="G72" s="16">
         <f>G69-(G70+G71)</f>
-        <v>27842.012032647333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+        <v>27885.864126417822</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B73" s="17" t="s">
         <v>86</v>
       </c>
@@ -5661,7 +5656,7 @@
         <v>0.56742685571859919</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>107</v>
       </c>
@@ -5674,22 +5669,22 @@
       </c>
       <c r="D74" s="16">
         <f>D72*D73</f>
-        <v>-2731.7515730619466</v>
+        <v>-2736.0541725292187</v>
       </c>
       <c r="E74" s="16">
         <f>E72*E73</f>
-        <v>9756.2556180783668</v>
+        <v>9771.6220447472151</v>
       </c>
       <c r="F74" s="16">
         <f>F72*F73</f>
-        <v>17285.776555468092</v>
+        <v>17313.002227718982</v>
       </c>
       <c r="G74" s="16">
         <f>G72*G73</f>
-        <v>15798.305344564482</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+        <v>15823.188200249346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>101</v>
       </c>
@@ -5701,22 +5696,22 @@
       </c>
       <c r="D75" s="16">
         <f>C75+D74</f>
-        <v>-2731.7515730619466</v>
+        <v>-2736.0541725292187</v>
       </c>
       <c r="E75" s="16">
         <f>D75+E74</f>
-        <v>7024.5040450164197</v>
+        <v>7035.5678722179964</v>
       </c>
       <c r="F75" s="16">
         <f>E75+F74</f>
-        <v>24310.280600484512</v>
+        <v>24348.57009993698</v>
       </c>
       <c r="G75" s="16">
         <f>F75+G74</f>
-        <v>40108.585945048995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+        <v>40171.758300186324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>106</v>
       </c>
@@ -5744,7 +5739,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>105</v>
       </c>
@@ -5757,22 +5752,22 @@
       </c>
       <c r="D77" s="16">
         <f>D69-D71-D76</f>
-        <v>-10028.709173248906</v>
+        <v>-10034.106354020652</v>
       </c>
       <c r="E77" s="16">
-        <f t="shared" ref="D77:G77" si="1">E69-E71-E76</f>
-        <v>7104.8366929956064</v>
+        <f t="shared" ref="E77:G77" si="1">E69-E71-E76</f>
+        <v>7126.4254160826204</v>
       </c>
       <c r="F77" s="16">
         <f t="shared" si="1"/>
-        <v>20597.504062663163</v>
+        <v>20640.344185038954</v>
       </c>
       <c r="G77" s="16">
         <f t="shared" si="1"/>
-        <v>21240.012032647333</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+        <v>21283.864126417822</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>104</v>
       </c>
@@ -5785,22 +5780,22 @@
       </c>
       <c r="D78" s="16">
         <f>D77/$C$70*100</f>
-        <v>-30.380821488182086</v>
+        <v>-30.397171626842329</v>
       </c>
       <c r="E78" s="16">
         <f t="shared" ref="E78:G78" si="2">E77/$C$70*100</f>
-        <v>21.523285952728283</v>
+        <v>21.588686507369342</v>
       </c>
       <c r="F78" s="16">
         <f t="shared" si="2"/>
-        <v>62.39777056244521</v>
+        <v>62.527549788061052</v>
       </c>
       <c r="G78" s="16">
         <f t="shared" si="2"/>
-        <v>64.344174591479359</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
+        <v>64.477019468093971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B80" s="8" t="s">
         <v>94</v>
       </c>
@@ -5808,12 +5803,12 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="8" t="s">
         <v>109</v>
       </c>
@@ -5836,26 +5831,26 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="8"/>
-    <col min="2" max="2" width="25.81640625" style="8" customWidth="1"/>
-    <col min="3" max="7" width="17.7265625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="25.85546875" style="8" customWidth="1"/>
+    <col min="3" max="7" width="17.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.26953125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="8" customWidth="1"/>
     <col min="14" max="14" width="15" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.453125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="8" customWidth="1"/>
     <col min="18" max="18" width="13" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="8"/>
+    <col min="19" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -5866,7 +5861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
@@ -5875,14 +5870,14 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H7" s="8">
         <f>H6*G39</f>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="10" spans="2:9" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:9" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
@@ -5896,7 +5891,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:9" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
@@ -5910,7 +5905,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:9" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
@@ -5922,7 +5917,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
@@ -5936,7 +5931,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:9" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
@@ -5950,7 +5945,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:9" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="11" t="s">
         <v>61</v>
       </c>
@@ -5964,7 +5959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:9" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
@@ -5978,7 +5973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
@@ -5990,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:10" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
@@ -6005,7 +6000,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="83" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>24</v>
       </c>
@@ -6019,7 +6014,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="45" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:10" ht="45.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>62</v>
       </c>
@@ -6033,7 +6028,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="62.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:10" ht="62.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>27</v>
       </c>
@@ -6047,7 +6042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="62.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>30</v>
       </c>
@@ -6061,7 +6056,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="83" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:10" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
@@ -6075,7 +6070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="103.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:10" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>34</v>
       </c>
@@ -6089,7 +6084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
         <v>36</v>
       </c>
@@ -6103,7 +6098,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="21.5" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:10" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
         <v>47</v>
       </c>
@@ -6117,7 +6112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
         <v>54</v>
       </c>
@@ -6125,7 +6120,7 @@
         <v>1885.17</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>90</v>
       </c>
@@ -6143,7 +6138,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
         <v>38</v>
       </c>
@@ -6161,7 +6156,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
         <v>88</v>
       </c>
@@ -6179,7 +6174,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="2:10" ht="24" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
@@ -6197,7 +6192,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="2:10" ht="24" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:10" ht="23.25" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>44</v>
       </c>
@@ -6214,7 +6209,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:11" ht="24" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:11" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>91</v>
@@ -6234,12 +6229,12 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="6">
         <f>100/E26*G39</f>
         <v>5</v>
@@ -6254,7 +6249,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" ht="24" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:11" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>96</v>
@@ -6274,12 +6269,12 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" ht="24" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:11" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A36" s="6"/>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="6">
         <f>D35+D33+D32+D31+D30+D29+D28</f>
         <v>325515.82272</v>
@@ -6294,7 +6289,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" ht="24" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:11" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>53</v>
@@ -6314,7 +6309,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -6327,7 +6322,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="15"/>
       <c r="C39" s="6"/>
@@ -6344,7 +6339,7 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="15" t="s">
         <v>71</v>
@@ -6365,7 +6360,7 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="15" t="s">
         <v>93</v>
@@ -6385,7 +6380,7 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="15" t="s">
         <v>92</v>
@@ -6409,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="15" t="s">
         <v>73</v>
@@ -6431,7 +6426,7 @@
         <v>37275.619185384872</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="15" t="s">
         <v>97</v>
@@ -6452,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="15" t="s">
         <v>74</v>
@@ -6474,7 +6469,7 @@
         <v>37275.619185384872</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="15" t="s">
         <v>75</v>
@@ -6496,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
         <v>117</v>
       </c>
@@ -6513,7 +6508,7 @@
         <v>502.75619185384875</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
         <v>98</v>
       </c>
@@ -6530,7 +6525,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -6540,7 +6535,7 @@
       <c r="I49" s="18"/>
       <c r="K49" s="18"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -6548,7 +6543,7 @@
       <c r="G50" s="6"/>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51" s="6" t="s">
         <v>57</v>
       </c>
@@ -6559,7 +6554,7 @@
       <c r="G51" s="6"/>
       <c r="I51" s="18"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52" s="6" t="s">
         <v>58</v>
       </c>
@@ -6576,7 +6571,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B53" s="8" t="s">
         <v>59</v>
       </c>
@@ -6585,7 +6580,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="8" t="s">
         <v>60</v>
       </c>
@@ -6594,7 +6589,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B55" s="8" t="s">
         <v>87</v>
       </c>
@@ -6605,7 +6600,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E56" s="8" t="s">
         <v>70</v>
       </c>
@@ -6613,7 +6608,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E57" s="8" t="s">
         <v>89</v>
       </c>
@@ -6622,7 +6617,7 @@
         <v>3727.5619185384876</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B58" s="6" t="s">
         <v>56</v>
       </c>
@@ -6631,7 +6626,7 @@
         <v>21840</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59" s="8" t="s">
         <v>63</v>
       </c>
@@ -6640,7 +6635,7 @@
         <v>42303.181103923358</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60" s="8" t="s">
         <v>64</v>
       </c>
@@ -6649,7 +6644,7 @@
         <v>37275.619185384872</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="8" t="s">
         <v>65</v>
       </c>
@@ -6658,7 +6653,7 @@
         <v>5027.5619185384876</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62" s="8" t="s">
         <v>66</v>
       </c>
@@ -6667,7 +6662,7 @@
         <v>48648.658269511863</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="8" t="s">
         <v>110</v>
       </c>
@@ -6676,7 +6671,7 @@
         <v>6345.4771655885033</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="8" t="s">
         <v>67</v>
       </c>
@@ -6685,7 +6680,7 @@
         <v>4864.8658269511861</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
         <v>79</v>
       </c>
@@ -6693,7 +6688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B67" s="16"/>
       <c r="C67" s="16">
         <v>2016</v>
@@ -6711,7 +6706,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B68" s="16" t="s">
         <v>81</v>
       </c>
@@ -6731,7 +6726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B69" s="16" t="s">
         <v>80</v>
       </c>
@@ -6755,7 +6750,7 @@
         <v>48648.658269511863</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B70" s="16" t="s">
         <v>82</v>
       </c>
@@ -6776,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B71" s="16" t="s">
         <v>83</v>
       </c>
@@ -6800,7 +6795,7 @@
         <v>21151.590551961679</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>108</v>
       </c>
@@ -6828,7 +6823,7 @@
         <v>27497.067717550184</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B73" s="17" t="s">
         <v>86</v>
       </c>
@@ -6853,7 +6848,7 @@
         <v>0.56742685571859919</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>107</v>
       </c>
@@ -6881,7 +6876,7 @@
         <v>15602.5746764509</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>101</v>
       </c>
@@ -6909,7 +6904,7 @@
         <v>21234.382207742958</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>106</v>
       </c>
@@ -6937,7 +6932,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>105</v>
       </c>
@@ -6965,7 +6960,7 @@
         <v>23129.067717550184</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>104</v>
       </c>
@@ -6993,7 +6988,7 @@
         <v>105.90232471405763</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B80" s="8" t="s">
         <v>94</v>
       </c>
@@ -7001,12 +6996,12 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="8" t="s">
         <v>109</v>
       </c>
